--- a/Data/PROR and storage lists.xlsx
+++ b/Data/PROR and storage lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geetabhatta/DataScience/Firm_Nepal_Electricity_Model-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F470A929-91D6-AA4F-B89F-1F215097335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4348DA4-4F0B-894B-8E7D-07E21E5F12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{68C6429C-9B5C-B64B-B31C-3B48E51DC589}"/>
   </bookViews>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
